--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -14,6 +14,9 @@
     <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Netzplan!$V$14:$X$17</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -865,7 +868,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1168,6 +1171,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1286,7 +1293,86 @@
     <cellStyle name="KritischerPfad" xfId="21"/>
     <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF203864"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808080"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF548235"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF843C0B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D18E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1937,8 +2023,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2511,7 +2597,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3235,8 +3321,10 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BG4" activeCellId="0" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4192,7 +4280,7 @@
         <f aca="false">Q14+Q16</f>
         <v>3</v>
       </c>
-      <c r="V14" s="52" t="n">
+      <c r="V14" s="76" t="n">
         <f aca="false">S14</f>
         <v>3</v>
       </c>
@@ -4243,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="70"/>
-      <c r="P15" s="76"/>
+      <c r="P15" s="77"/>
       <c r="Q15" s="59" t="s">
         <v>22</v>
       </c>
@@ -4375,20 +4463,20 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="80" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="81" t="s">
         <v>81</v>
       </c>
       <c r="I17" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="79" t="n">
+      <c r="J17" s="80" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -4421,15 +4509,15 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="84" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4441,7 +4529,7 @@
       <c r="C20" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="84" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4456,13 +4544,13 @@
       <c r="A22" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="85" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="84" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4474,11 +4562,12 @@
       <c r="C23" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="84" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="V14:X17"/>
   <mergeCells count="35">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -4517,87 +4606,87 @@
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="BP4">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA4">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4651,182 +4740,182 @@
       <c r="F1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="87" t="n">
+      <c r="K1" s="86"/>
+      <c r="L1" s="88" t="n">
         <v>45397</v>
       </c>
-      <c r="M1" s="87" t="n">
+      <c r="M1" s="88" t="n">
         <v>45398</v>
       </c>
-      <c r="N1" s="87" t="n">
+      <c r="N1" s="88" t="n">
         <v>45399</v>
       </c>
-      <c r="O1" s="87" t="n">
+      <c r="O1" s="88" t="n">
         <v>45400</v>
       </c>
-      <c r="P1" s="87" t="n">
+      <c r="P1" s="88" t="n">
         <v>45401</v>
       </c>
-      <c r="Q1" s="87" t="n">
+      <c r="Q1" s="88" t="n">
         <v>45402</v>
       </c>
-      <c r="R1" s="87" t="n">
+      <c r="R1" s="88" t="n">
         <v>45403</v>
       </c>
-      <c r="S1" s="87" t="n">
+      <c r="S1" s="88" t="n">
         <v>45404</v>
       </c>
-      <c r="T1" s="87" t="n">
+      <c r="T1" s="88" t="n">
         <v>45405</v>
       </c>
-      <c r="U1" s="87" t="n">
+      <c r="U1" s="88" t="n">
         <v>45406</v>
       </c>
-      <c r="V1" s="87" t="n">
+      <c r="V1" s="88" t="n">
         <v>45407</v>
       </c>
-      <c r="W1" s="87" t="n">
+      <c r="W1" s="88" t="n">
         <v>45408</v>
       </c>
-      <c r="X1" s="87" t="n">
+      <c r="X1" s="88" t="n">
         <v>45409</v>
       </c>
-      <c r="Y1" s="87" t="n">
+      <c r="Y1" s="88" t="n">
         <v>45410</v>
       </c>
-      <c r="Z1" s="87" t="n">
+      <c r="Z1" s="88" t="n">
         <v>45411</v>
       </c>
-      <c r="AA1" s="87" t="n">
+      <c r="AA1" s="88" t="n">
         <v>45412</v>
       </c>
-      <c r="AB1" s="88" t="n">
+      <c r="AB1" s="89" t="n">
         <v>45413</v>
       </c>
-      <c r="AC1" s="87" t="n">
+      <c r="AC1" s="88" t="n">
         <v>45414</v>
       </c>
-      <c r="AD1" s="87" t="n">
+      <c r="AD1" s="88" t="n">
         <v>45415</v>
       </c>
-      <c r="AE1" s="87" t="n">
+      <c r="AE1" s="88" t="n">
         <v>45416</v>
       </c>
-      <c r="AF1" s="87" t="n">
+      <c r="AF1" s="88" t="n">
         <v>45417</v>
       </c>
-      <c r="AG1" s="87" t="n">
+      <c r="AG1" s="88" t="n">
         <v>45418</v>
       </c>
-      <c r="AH1" s="87" t="n">
+      <c r="AH1" s="88" t="n">
         <v>45419</v>
       </c>
-      <c r="AI1" s="87" t="n">
+      <c r="AI1" s="88" t="n">
         <v>45420</v>
       </c>
-      <c r="AJ1" s="88" t="n">
+      <c r="AJ1" s="89" t="n">
         <v>45421</v>
       </c>
-      <c r="AK1" s="87" t="n">
+      <c r="AK1" s="88" t="n">
         <v>45422</v>
       </c>
-      <c r="AL1" s="87" t="n">
+      <c r="AL1" s="88" t="n">
         <v>45423</v>
       </c>
-      <c r="AM1" s="87" t="n">
+      <c r="AM1" s="88" t="n">
         <v>45424</v>
       </c>
-      <c r="AN1" s="87" t="n">
+      <c r="AN1" s="88" t="n">
         <v>45425</v>
       </c>
-      <c r="AO1" s="87" t="n">
+      <c r="AO1" s="88" t="n">
         <v>45426</v>
       </c>
-      <c r="AP1" s="87" t="n">
+      <c r="AP1" s="88" t="n">
         <v>45427</v>
       </c>
-      <c r="AQ1" s="87" t="n">
+      <c r="AQ1" s="88" t="n">
         <v>45428</v>
       </c>
-      <c r="AR1" s="87" t="n">
+      <c r="AR1" s="88" t="n">
         <v>45429</v>
       </c>
-      <c r="AS1" s="87" t="n">
+      <c r="AS1" s="88" t="n">
         <v>45430</v>
       </c>
-      <c r="AT1" s="87" t="n">
+      <c r="AT1" s="88" t="n">
         <v>45431</v>
       </c>
-      <c r="AU1" s="87" t="n">
+      <c r="AU1" s="88" t="n">
         <v>45432</v>
       </c>
-      <c r="AV1" s="87" t="n">
+      <c r="AV1" s="88" t="n">
         <v>45433</v>
       </c>
-      <c r="AW1" s="87" t="n">
+      <c r="AW1" s="88" t="n">
         <v>45434</v>
       </c>
-      <c r="AX1" s="87" t="n">
+      <c r="AX1" s="88" t="n">
         <v>45435</v>
       </c>
-      <c r="AY1" s="87" t="n">
+      <c r="AY1" s="88" t="n">
         <v>45436</v>
       </c>
-      <c r="AZ1" s="87" t="n">
+      <c r="AZ1" s="88" t="n">
         <v>45437</v>
       </c>
-      <c r="BA1" s="87" t="n">
+      <c r="BA1" s="88" t="n">
         <v>45438</v>
       </c>
-      <c r="BB1" s="87" t="n">
+      <c r="BB1" s="88" t="n">
         <v>45439</v>
       </c>
-      <c r="BC1" s="87" t="n">
+      <c r="BC1" s="88" t="n">
         <v>45440</v>
       </c>
-      <c r="BD1" s="87" t="n">
+      <c r="BD1" s="88" t="n">
         <v>45441</v>
       </c>
-      <c r="BE1" s="88" t="n">
+      <c r="BE1" s="89" t="n">
         <v>45442</v>
       </c>
-      <c r="BF1" s="87" t="n">
+      <c r="BF1" s="88" t="n">
         <v>45443</v>
       </c>
-      <c r="BG1" s="87" t="n">
+      <c r="BG1" s="88" t="n">
         <v>45444</v>
       </c>
-      <c r="BH1" s="87" t="n">
+      <c r="BH1" s="88" t="n">
         <v>45445</v>
       </c>
-      <c r="BI1" s="87" t="n">
+      <c r="BI1" s="88" t="n">
         <v>45446</v>
       </c>
-      <c r="BJ1" s="87" t="n">
+      <c r="BJ1" s="88" t="n">
         <v>45447</v>
       </c>
-      <c r="BK1" s="87" t="n">
+      <c r="BK1" s="88" t="n">
         <v>45448</v>
       </c>
-      <c r="BL1" s="87" t="n">
+      <c r="BL1" s="88" t="n">
         <v>45449</v>
       </c>
-      <c r="BM1" s="87" t="n">
+      <c r="BM1" s="88" t="n">
         <v>45450</v>
       </c>
-      <c r="BN1" s="83" t="s">
+      <c r="BN1" s="84" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4855,11 +4944,11 @@
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="89" t="n">
+      <c r="J2" s="90" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="90" t="n">
+      <c r="K2" s="91" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>2</v>
       </c>
@@ -4883,7 +4972,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="38"/>
-      <c r="AB2" s="91"/>
+      <c r="AB2" s="92"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
@@ -4891,7 +4980,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="38"/>
       <c r="AI2" s="38"/>
-      <c r="AJ2" s="91"/>
+      <c r="AJ2" s="92"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
       <c r="AM2" s="38"/>
@@ -4906,20 +4995,20 @@
       <c r="AV2" s="38"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
-      <c r="AY2" s="92"/>
+      <c r="AY2" s="93"/>
       <c r="AZ2" s="38"/>
       <c r="BA2" s="38"/>
       <c r="BB2" s="38"/>
       <c r="BC2" s="38"/>
       <c r="BD2" s="38"/>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="92"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="93"/>
       <c r="BG2" s="38"/>
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
       <c r="BJ2" s="38"/>
       <c r="BK2" s="38"/>
-      <c r="BL2" s="92"/>
+      <c r="BL2" s="93"/>
       <c r="BM2" s="38"/>
       <c r="BN2" s="44" t="s">
         <v>100</v>
@@ -4952,11 +5041,11 @@
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="89" t="n">
+      <c r="J3" s="90" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="90" t="n">
+      <c r="K3" s="91" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
@@ -4978,7 +5067,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
-      <c r="AB3" s="91"/>
+      <c r="AB3" s="92"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
@@ -4986,7 +5075,7 @@
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
       <c r="AI3" s="38"/>
-      <c r="AJ3" s="91"/>
+      <c r="AJ3" s="92"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
       <c r="AM3" s="38"/>
@@ -5001,20 +5090,20 @@
       <c r="AV3" s="38"/>
       <c r="AW3" s="38"/>
       <c r="AX3" s="38"/>
-      <c r="AY3" s="92"/>
+      <c r="AY3" s="93"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="38"/>
       <c r="BB3" s="38"/>
       <c r="BC3" s="38"/>
       <c r="BD3" s="38"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="92"/>
+      <c r="BE3" s="92"/>
+      <c r="BF3" s="93"/>
       <c r="BG3" s="38"/>
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
-      <c r="BL3" s="92"/>
+      <c r="BL3" s="93"/>
       <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,11 +5133,11 @@
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="89" t="n">
+      <c r="J4" s="90" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="90" t="n">
+      <c r="K4" s="91" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
@@ -5076,7 +5165,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
-      <c r="AB4" s="91"/>
+      <c r="AB4" s="92"/>
       <c r="AC4" s="38"/>
       <c r="AD4" s="38"/>
       <c r="AE4" s="38"/>
@@ -5084,7 +5173,7 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
-      <c r="AJ4" s="91"/>
+      <c r="AJ4" s="92"/>
       <c r="AK4" s="38"/>
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
@@ -5099,20 +5188,20 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="92"/>
+      <c r="AY4" s="93"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="38"/>
       <c r="BC4" s="38"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="93"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
-      <c r="BL4" s="92"/>
+      <c r="BL4" s="93"/>
       <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,11 +5231,11 @@
         <f aca="false">Netzplan!I5</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="89" t="n">
+      <c r="J5" s="90" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="90" t="n">
+      <c r="K5" s="91" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
@@ -5172,7 +5261,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
-      <c r="AB5" s="91"/>
+      <c r="AB5" s="92"/>
       <c r="AC5" s="38"/>
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
@@ -5180,7 +5269,7 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
-      <c r="AJ5" s="91"/>
+      <c r="AJ5" s="92"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
@@ -5195,20 +5284,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="38"/>
       <c r="AX5" s="38"/>
-      <c r="AY5" s="92"/>
+      <c r="AY5" s="93"/>
       <c r="AZ5" s="38"/>
       <c r="BA5" s="38"/>
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
       <c r="BG5" s="38"/>
       <c r="BH5" s="38"/>
       <c r="BI5" s="38"/>
       <c r="BJ5" s="38"/>
       <c r="BK5" s="38"/>
-      <c r="BL5" s="92"/>
+      <c r="BL5" s="93"/>
       <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,11 +5327,11 @@
         <f aca="false">Netzplan!I6</f>
         <v>1.5</v>
       </c>
-      <c r="J6" s="89" t="n">
+      <c r="J6" s="90" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="90" t="n">
+      <c r="K6" s="91" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
@@ -5272,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="93"/>
+      <c r="AB6" s="94"/>
       <c r="AC6" s="56"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
@@ -5280,7 +5369,7 @@
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
-      <c r="AJ6" s="91"/>
+      <c r="AJ6" s="92"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
@@ -5295,20 +5384,20 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="38"/>
       <c r="AX6" s="38"/>
-      <c r="AY6" s="92"/>
+      <c r="AY6" s="93"/>
       <c r="AZ6" s="38"/>
       <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="93"/>
       <c r="BG6" s="38"/>
       <c r="BH6" s="38"/>
       <c r="BI6" s="38"/>
       <c r="BJ6" s="38"/>
       <c r="BK6" s="38"/>
-      <c r="BL6" s="92"/>
+      <c r="BL6" s="93"/>
       <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,11 +5427,11 @@
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="89" t="n">
+      <c r="J7" s="90" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="90" t="n">
+      <c r="K7" s="91" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
@@ -5364,7 +5453,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
-      <c r="AB7" s="91"/>
+      <c r="AB7" s="92"/>
       <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
@@ -5372,7 +5461,7 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
-      <c r="AJ7" s="91"/>
+      <c r="AJ7" s="92"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -5387,20 +5476,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="38"/>
       <c r="AX7" s="38"/>
-      <c r="AY7" s="92"/>
+      <c r="AY7" s="93"/>
       <c r="AZ7" s="38"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
       <c r="BC7" s="38"/>
       <c r="BD7" s="38"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="92"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="93"/>
       <c r="BG7" s="38"/>
       <c r="BH7" s="38"/>
       <c r="BI7" s="38"/>
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
-      <c r="BL7" s="92"/>
+      <c r="BL7" s="93"/>
       <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,11 +5519,11 @@
         <f aca="false">Netzplan!I8</f>
         <v>0.8</v>
       </c>
-      <c r="J8" s="89" t="n">
+      <c r="J8" s="90" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="90" t="n">
+      <c r="K8" s="91" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
@@ -5462,7 +5551,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
-      <c r="AB8" s="91"/>
+      <c r="AB8" s="92"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
@@ -5470,7 +5559,7 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
-      <c r="AJ8" s="91"/>
+      <c r="AJ8" s="92"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
@@ -5485,36 +5574,36 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="92"/>
+      <c r="AY8" s="93"/>
       <c r="AZ8" s="38"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="38"/>
       <c r="BD8" s="38"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="93"/>
       <c r="BG8" s="38"/>
       <c r="BH8" s="38"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="92"/>
+      <c r="BL8" s="93"/>
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="58"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5531,7 +5620,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="91"/>
+      <c r="AB9" s="92"/>
       <c r="AC9" s="38"/>
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
@@ -5539,7 +5628,7 @@
       <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
-      <c r="AJ9" s="91"/>
+      <c r="AJ9" s="92"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
@@ -5554,20 +5643,20 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
-      <c r="AY9" s="92"/>
+      <c r="AY9" s="93"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
       <c r="BC9" s="38"/>
       <c r="BD9" s="38"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="93"/>
       <c r="BG9" s="38"/>
       <c r="BH9" s="38"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="38"/>
       <c r="BK9" s="38"/>
-      <c r="BL9" s="92"/>
+      <c r="BL9" s="93"/>
       <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,11 +5686,11 @@
         <f aca="false">Netzplan!I9</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="89" t="n">
+      <c r="J10" s="90" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="K10" s="90" t="n">
+      <c r="K10" s="91" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
@@ -5623,7 +5712,7 @@
       <c r="AA10" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AB10" s="91"/>
+      <c r="AB10" s="92"/>
       <c r="AC10" s="38"/>
       <c r="AD10" s="56"/>
       <c r="AE10" s="38"/>
@@ -5631,7 +5720,7 @@
       <c r="AG10" s="56"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
-      <c r="AJ10" s="91"/>
+      <c r="AJ10" s="92"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
@@ -5646,20 +5735,20 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="92"/>
+      <c r="AY10" s="93"/>
       <c r="AZ10" s="38"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
       <c r="BC10" s="38"/>
       <c r="BD10" s="38"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="93"/>
       <c r="BG10" s="38"/>
       <c r="BH10" s="38"/>
       <c r="BI10" s="38"/>
       <c r="BJ10" s="38"/>
       <c r="BK10" s="38"/>
-      <c r="BL10" s="92"/>
+      <c r="BL10" s="93"/>
       <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,11 +5778,11 @@
         <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="89" t="n">
+      <c r="J11" s="90" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K11" s="90" t="n">
+      <c r="K11" s="91" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
@@ -5713,7 +5802,7 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
-      <c r="AB11" s="91"/>
+      <c r="AB11" s="92"/>
       <c r="AC11" s="38" t="n">
         <v>1</v>
       </c>
@@ -5723,7 +5812,7 @@
       <c r="AG11" s="38"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
-      <c r="AJ11" s="91"/>
+      <c r="AJ11" s="92"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
@@ -5738,20 +5827,20 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
-      <c r="AY11" s="92"/>
+      <c r="AY11" s="93"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
       <c r="BC11" s="38"/>
       <c r="BD11" s="38"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="93"/>
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
       <c r="BK11" s="38"/>
-      <c r="BL11" s="92"/>
+      <c r="BL11" s="93"/>
       <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,11 +5870,11 @@
         <f aca="false">Netzplan!I11</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="89" t="n">
+      <c r="J12" s="90" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K12" s="90" t="n">
+      <c r="K12" s="91" t="n">
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
@@ -5805,7 +5894,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="91"/>
+      <c r="AB12" s="92"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38" t="n">
         <v>1</v>
@@ -5814,7 +5903,7 @@
       <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
-      <c r="AJ12" s="93"/>
+      <c r="AJ12" s="94"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -5829,20 +5918,20 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
-      <c r="AY12" s="92"/>
+      <c r="AY12" s="93"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="92"/>
+      <c r="BE12" s="92"/>
+      <c r="BF12" s="93"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
       <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
-      <c r="BL12" s="92"/>
+      <c r="BL12" s="93"/>
       <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,11 +5961,11 @@
         <f aca="false">Netzplan!I12</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="89" t="n">
+      <c r="J13" s="90" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="K13" s="90" t="n">
+      <c r="K13" s="91" t="n">
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
@@ -5906,7 +5995,7 @@
       <c r="AA13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AB13" s="91"/>
+      <c r="AB13" s="92"/>
       <c r="AC13" s="38" t="n">
         <v>1</v>
       </c>
@@ -5924,7 +6013,7 @@
       <c r="AI13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AJ13" s="93"/>
+      <c r="AJ13" s="94"/>
       <c r="AK13" s="56" t="n">
         <v>1</v>
       </c>
@@ -5959,19 +6048,19 @@
       <c r="AX13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AY13" s="92"/>
+      <c r="AY13" s="93"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
       <c r="BC13" s="38"/>
       <c r="BD13" s="38"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="93"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
-      <c r="BL13" s="92"/>
+      <c r="BL13" s="93"/>
       <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,11 +6090,11 @@
         <f aca="false">Netzplan!I13</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="89" t="n">
+      <c r="J14" s="90" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="K14" s="90" t="n">
+      <c r="K14" s="91" t="n">
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
@@ -6025,7 +6114,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-      <c r="AB14" s="91"/>
+      <c r="AB14" s="92"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
@@ -6037,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AI14" s="38"/>
-      <c r="AJ14" s="91"/>
+      <c r="AJ14" s="92"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
       <c r="AN14" s="56"/>
@@ -6051,20 +6140,20 @@
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
-      <c r="AY14" s="92"/>
+      <c r="AY14" s="93"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="38"/>
       <c r="BD14" s="38"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="92"/>
+      <c r="BE14" s="92"/>
+      <c r="BF14" s="93"/>
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
       <c r="BJ14" s="38"/>
       <c r="BK14" s="38"/>
-      <c r="BL14" s="92"/>
+      <c r="BL14" s="93"/>
       <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,11 +6183,11 @@
         <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="89" t="n">
+      <c r="J15" s="90" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K15" s="90" t="n">
+      <c r="K15" s="91" t="n">
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
@@ -6118,7 +6207,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
-      <c r="AB15" s="91"/>
+      <c r="AB15" s="92"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
@@ -6128,7 +6217,7 @@
       <c r="AI15" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AJ15" s="91"/>
+      <c r="AJ15" s="92"/>
       <c r="AK15" s="38" t="n">
         <v>1</v>
       </c>
@@ -6144,36 +6233,36 @@
       <c r="AV15" s="38"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
-      <c r="AY15" s="92"/>
+      <c r="AY15" s="93"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
       <c r="BC15" s="38"/>
       <c r="BD15" s="38"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="93"/>
       <c r="BG15" s="38"/>
       <c r="BH15" s="38"/>
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="38"/>
-      <c r="BL15" s="92"/>
+      <c r="BL15" s="93"/>
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36"/>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6190,7 +6279,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
-      <c r="AB16" s="91"/>
+      <c r="AB16" s="92"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
@@ -6198,7 +6287,7 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="91"/>
+      <c r="AJ16" s="92"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
@@ -6212,20 +6301,20 @@
       <c r="AV16" s="38"/>
       <c r="AW16" s="38"/>
       <c r="AX16" s="38"/>
-      <c r="AY16" s="92"/>
+      <c r="AY16" s="93"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="93"/>
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
       <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
-      <c r="BL16" s="92"/>
+      <c r="BL16" s="93"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,11 +6344,11 @@
         <f aca="false">Netzplan!I15</f>
         <v>1.5</v>
       </c>
-      <c r="J17" s="89" t="n">
+      <c r="J17" s="90" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K17" s="90" t="n">
+      <c r="K17" s="91" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
@@ -6279,7 +6368,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
-      <c r="AB17" s="91"/>
+      <c r="AB17" s="92"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
       <c r="AE17" s="38"/>
@@ -6287,7 +6376,7 @@
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
-      <c r="AJ17" s="91"/>
+      <c r="AJ17" s="92"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
@@ -6303,20 +6392,20 @@
       <c r="AV17" s="56"/>
       <c r="AW17" s="38"/>
       <c r="AX17" s="38"/>
-      <c r="AY17" s="92"/>
+      <c r="AY17" s="93"/>
       <c r="AZ17" s="38"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
       <c r="BC17" s="38"/>
       <c r="BD17" s="38"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="92"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="93"/>
       <c r="BG17" s="38"/>
       <c r="BH17" s="38"/>
       <c r="BI17" s="38"/>
       <c r="BJ17" s="38"/>
       <c r="BK17" s="38"/>
-      <c r="BL17" s="92"/>
+      <c r="BL17" s="93"/>
       <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,11 +6435,11 @@
         <f aca="false">Netzplan!I16</f>
         <v>1.5</v>
       </c>
-      <c r="J18" s="89" t="n">
+      <c r="J18" s="90" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K18" s="90" t="n">
+      <c r="K18" s="91" t="n">
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
@@ -6370,7 +6459,7 @@
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
-      <c r="AB18" s="91"/>
+      <c r="AB18" s="92"/>
       <c r="AC18" s="38"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
@@ -6378,7 +6467,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
-      <c r="AJ18" s="91"/>
+      <c r="AJ18" s="92"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
@@ -6399,35 +6488,35 @@
         <v>1</v>
       </c>
       <c r="AX18" s="56"/>
-      <c r="AY18" s="92"/>
+      <c r="AY18" s="93"/>
       <c r="AZ18" s="38"/>
       <c r="BA18" s="38"/>
       <c r="BB18" s="56"/>
       <c r="BC18" s="38"/>
       <c r="BD18" s="38"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="93"/>
       <c r="BG18" s="38"/>
       <c r="BH18" s="38"/>
       <c r="BI18" s="38"/>
       <c r="BK18" s="38"/>
-      <c r="BL18" s="92"/>
+      <c r="BL18" s="93"/>
       <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="58"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -6444,7 +6533,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
-      <c r="AB19" s="91"/>
+      <c r="AB19" s="92"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="38"/>
       <c r="AE19" s="38"/>
@@ -6452,7 +6541,7 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
-      <c r="AJ19" s="91"/>
+      <c r="AJ19" s="92"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
@@ -6467,19 +6556,19 @@
       <c r="AV19" s="38"/>
       <c r="AW19" s="38"/>
       <c r="AX19" s="56"/>
-      <c r="AY19" s="92"/>
+      <c r="AY19" s="93"/>
       <c r="AZ19" s="38"/>
       <c r="BA19" s="38"/>
       <c r="BB19" s="56"/>
       <c r="BC19" s="38"/>
       <c r="BD19" s="38"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="93"/>
       <c r="BG19" s="38"/>
       <c r="BH19" s="38"/>
       <c r="BI19" s="38"/>
       <c r="BK19" s="38"/>
-      <c r="BL19" s="92"/>
+      <c r="BL19" s="93"/>
       <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,27 +6580,27 @@
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79" t="n">
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="79" t="str">
+      <c r="H20" s="80" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="95" t="n">
+      <c r="I20" s="96" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="96" t="n">
+      <c r="J20" s="97" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="90" t="n">
+      <c r="K20" s="91" t="n">
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
@@ -6531,7 +6620,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="97"/>
+      <c r="AB20" s="98"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
@@ -6539,7 +6628,7 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
-      <c r="AJ20" s="97"/>
+      <c r="AJ20" s="98"/>
       <c r="AK20" s="42"/>
       <c r="AL20" s="42"/>
       <c r="AM20" s="42"/>
@@ -6556,19 +6645,19 @@
       <c r="AX20" s="42"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="38"/>
-      <c r="BB20" s="98" t="n">
+      <c r="BB20" s="99" t="n">
         <v>1</v>
       </c>
       <c r="BC20" s="56"/>
       <c r="BD20" s="42"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="98"/>
+      <c r="BE20" s="98"/>
+      <c r="BF20" s="99"/>
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="42"/>
-      <c r="BL20" s="98"/>
+      <c r="BL20" s="99"/>
       <c r="BM20" s="42"/>
     </row>
   </sheetData>
@@ -6595,17 +6684,17 @@
     <mergeCell ref="B20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="L1:L20 M1:BM1 L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6633,7 +6722,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
@@ -6641,279 +6730,279 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="100" t="n">
+      <c r="A2" s="101" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="101" t="n">
+      <c r="F2" s="102" t="n">
         <v>45413</v>
       </c>
-      <c r="G2" s="101" t="n">
+      <c r="G2" s="102" t="n">
         <v>45414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="100" t="n">
+      <c r="A3" s="101" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="100" t="n">
+      <c r="A4" s="101" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="n">
+      <c r="A5" s="101" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="100" t="n">
+      <c r="A6" s="101" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="100" t="n">
+      <c r="A7" s="101" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="100" t="n">
+      <c r="A8" s="101" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="100" t="n">
+      <c r="A9" s="101" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="100" t="n">
+      <c r="A10" s="101" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="100" t="n">
+      <c r="A11" s="101" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="100" t="n">
+      <c r="A12" s="101" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100" t="n">
+      <c r="A13" s="101" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="100" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="n">
+      <c r="A14" s="102" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="84" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="n">
+      <c r="A15" s="102" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="n">
+      <c r="A16" s="102" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101" t="n">
+      <c r="A17" s="102" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="84" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="PSP_2" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="145">
-  <si>
-    <t xml:space="preserve">Beispiel: ??? Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+  <si>
+    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -35,57 +35,133 @@
     <t xml:space="preserve">Fr. Claire</t>
   </si>
   <si>
+    <t xml:space="preserve">Produkt-Katalogisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Tests,
+Kundenbetreuung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSP-ID</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte erfassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+    <t xml:space="preserve">1.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">eventuelle Korrekturen</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onlinestellung</t>
   </si>
   <si>
@@ -101,90 +177,27 @@
     <t xml:space="preserve">Frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hr. Karl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr. Groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hr. Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.7</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Stellung</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.8</t>
   </si>
   <si>
@@ -228,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung Frontend</t>
@@ -582,12 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAADCF7"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFFF8080"/>
       </patternFill>
@@ -620,6 +624,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
         <bgColor rgb="FFAADCF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAADCF7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,27 +698,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -738,7 +727,21 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
@@ -753,6 +756,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
@@ -884,299 +894,299 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1196,59 +1206,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1930,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,175 +1982,511 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="I26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="I29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="I32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="I33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="38">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2168,7 +2514,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -2179,7 +2525,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2212,611 +2558,611 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="3"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="19"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="22" t="s">
+      <c r="J12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="23" t="s">
+      <c r="M12" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="I20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="I23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="L23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="I26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="24" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="I29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="L32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="27" t="s">
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="28" t="s">
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="L33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="I8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="L8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="L35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="L36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="I11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="L11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="I14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="L14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="34" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="I17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="L17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="I20" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="32"/>
-      <c r="L20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="34" t="s">
+      <c r="B46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="36" t="s">
+      <c r="B48" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="I23" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="L23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="I25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="I26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="L26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="I27" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="I28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="I29" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="L29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="I30" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="L32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="33"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="L33" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="L35" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="33"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="L36" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="B49" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -2907,45 +3253,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="49" t="n">
         <v>5</v>
@@ -3060,19 +3406,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <v>1</v>
@@ -3088,21 +3434,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
       <c r="O3" s="60"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="59" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="60"/>
       <c r="U3" s="61"/>
       <c r="V3" s="59" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
@@ -3114,80 +3460,80 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="61"/>
       <c r="AF3" s="59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="59"/>
       <c r="AH3" s="59"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
       <c r="AN3" s="60"/>
       <c r="AO3" s="61"/>
       <c r="AP3" s="59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AQ3" s="59"/>
       <c r="AR3" s="59"/>
       <c r="AS3" s="60"/>
       <c r="AT3" s="61"/>
       <c r="AU3" s="59" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AV3" s="59"/>
       <c r="AW3" s="59"/>
       <c r="AX3" s="60"/>
       <c r="AY3" s="61"/>
       <c r="AZ3" s="59" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BA3" s="59"/>
       <c r="BB3" s="59"/>
       <c r="BC3" s="60"/>
       <c r="BD3" s="61"/>
       <c r="BE3" s="59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="BF3" s="59"/>
       <c r="BG3" s="59"/>
       <c r="BH3" s="60"/>
       <c r="BI3" s="61"/>
       <c r="BJ3" s="59" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="BK3" s="59"/>
       <c r="BL3" s="59"/>
       <c r="BM3" s="60"/>
       <c r="BN3" s="61"/>
       <c r="BO3" s="59" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="BP3" s="59"/>
       <c r="BQ3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I4" s="58" t="n">
         <v>1</v>
@@ -3331,19 +3677,19 @@
       <c r="BQ4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="56" t="n">
         <v>3</v>
@@ -3464,19 +3810,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="72" t="n">
         <v>7</v>
@@ -3499,25 +3845,25 @@
       <c r="BM6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7" s="58" t="n">
         <v>1</v>
@@ -3533,25 +3879,25 @@
       <c r="BM7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="58" t="n">
         <v>0.8</v>
@@ -3585,25 +3931,25 @@
       <c r="BM8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3616,14 +3962,14 @@
       <c r="O9" s="70"/>
       <c r="T9" s="70"/>
       <c r="V9" s="59" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
@@ -3632,25 +3978,25 @@
       <c r="BM9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G10" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3690,25 +4036,25 @@
       <c r="BM10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G11" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3741,19 +4087,19 @@
       <c r="BM11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G12" s="72" t="n">
         <v>10</v>
@@ -3778,25 +4124,25 @@
       <c r="BM12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G13" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3811,25 +4157,25 @@
       <c r="BM13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G14" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I14" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3871,25 +4217,25 @@
       <c r="BM14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" s="72" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3902,21 +4248,21 @@
       <c r="O15" s="70"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="59" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
       <c r="V15" s="59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W15" s="59"/>
       <c r="X15" s="59"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="61"/>
       <c r="AA15" s="59" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
@@ -3958,25 +4304,25 @@
       <c r="BM15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G16" s="72" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I16" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -4024,23 +4370,23 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" s="58" t="n">
         <v>1</v>
@@ -4084,55 +4430,55 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="59" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4294,31 +4640,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="87" t="n">
@@ -4484,21 +4830,21 @@
         <v>45450</v>
       </c>
       <c r="BN1" s="83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="56" t="n">
         <f aca="false">Netzplan!G2</f>
@@ -4529,73 +4875,73 @@
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="91"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
       <c r="AJ2" s="91"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
       <c r="AY2" s="92"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
       <c r="BE2" s="91"/>
       <c r="BF2" s="92"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
       <c r="BL2" s="92"/>
-      <c r="BM2" s="13"/>
+      <c r="BM2" s="38"/>
       <c r="BN2" s="44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <f aca="false">Netzplan!G3</f>
@@ -4617,77 +4963,77 @@
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="56"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
       <c r="AB3" s="91"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
       <c r="AJ3" s="91"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
       <c r="AY3" s="92"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
       <c r="BE3" s="91"/>
       <c r="BF3" s="92"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
       <c r="BL3" s="92"/>
-      <c r="BM3" s="13"/>
+      <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <f aca="false">Netzplan!G4</f>
@@ -4709,18 +5055,18 @@
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13" t="n">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="56" t="n">
@@ -4729,63 +5075,63 @@
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
       <c r="AB4" s="91"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="91"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
       <c r="AY4" s="92"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
       <c r="BE4" s="91"/>
       <c r="BF4" s="92"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
       <c r="BL4" s="92"/>
-      <c r="BM4" s="13"/>
+      <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="56" t="n">
         <f aca="false">Netzplan!G5</f>
@@ -4807,81 +5153,81 @@
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="n">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="91"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
       <c r="AJ5" s="91"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
       <c r="AY5" s="92"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
       <c r="BE5" s="91"/>
       <c r="BF5" s="92"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
       <c r="BL5" s="92"/>
-      <c r="BM5" s="13"/>
+      <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="56" t="n">
         <f aca="false">Netzplan!G6</f>
@@ -4903,85 +5249,85 @@
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="13" t="n">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W6" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
       <c r="Z6" s="56" t="n">
         <v>1</v>
       </c>
       <c r="AA6" s="56"/>
       <c r="AB6" s="93"/>
       <c r="AC6" s="56"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
       <c r="AY6" s="92"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
       <c r="BE6" s="91"/>
       <c r="BF6" s="92"/>
-      <c r="BG6" s="13"/>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="13"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
       <c r="BL6" s="92"/>
-      <c r="BM6" s="13"/>
+      <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <f aca="false">Netzplan!G7</f>
@@ -5003,77 +5349,77 @@
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="56"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
       <c r="AB7" s="91"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
       <c r="AJ7" s="91"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
       <c r="AY7" s="92"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
       <c r="BE7" s="91"/>
       <c r="BF7" s="92"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
       <c r="BL7" s="92"/>
-      <c r="BM7" s="13"/>
+      <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="56" t="n">
         <f aca="false">Netzplan!G8</f>
@@ -5095,18 +5441,18 @@
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13" t="n">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="56" t="n">
@@ -5114,54 +5460,54 @@
       </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="91"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
       <c r="AJ8" s="91"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
       <c r="AY8" s="92"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
       <c r="BE8" s="91"/>
       <c r="BF8" s="92"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
       <c r="BL8" s="92"/>
-      <c r="BM8" s="13"/>
+      <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
@@ -5172,75 +5518,75 @@
       <c r="I9" s="58"/>
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="91"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
       <c r="AJ9" s="91"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
       <c r="AY9" s="92"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
       <c r="BE9" s="91"/>
       <c r="BF9" s="92"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
       <c r="BL9" s="92"/>
-      <c r="BM9" s="13"/>
+      <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G10" s="56" t="n">
         <f aca="false">Netzplan!G9</f>
@@ -5262,77 +5608,77 @@
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13" t="n">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="13"/>
+      <c r="AC10" s="38"/>
       <c r="AD10" s="56"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
       <c r="AG10" s="56"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
       <c r="AJ10" s="91"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
       <c r="AY10" s="92"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
       <c r="BE10" s="91"/>
       <c r="BF10" s="92"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
       <c r="BL10" s="92"/>
-      <c r="BM10" s="13"/>
+      <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G11" s="56" t="n">
         <f aca="false">Netzplan!G10</f>
@@ -5354,77 +5700,77 @@
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
       <c r="AB11" s="91"/>
-      <c r="AC11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
+      <c r="AC11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
       <c r="AJ11" s="91"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
       <c r="AY11" s="92"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="13"/>
-      <c r="BD11" s="13"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
       <c r="BE11" s="91"/>
       <c r="BF11" s="92"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
-      <c r="BK11" s="13"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
       <c r="BL11" s="92"/>
-      <c r="BM11" s="13"/>
+      <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="56" t="n">
         <f aca="false">Netzplan!G11</f>
@@ -5446,76 +5792,76 @@
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
       <c r="AJ12" s="93"/>
       <c r="AK12" s="56"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
       <c r="AY12" s="92"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="13"/>
-      <c r="BD12" s="13"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
       <c r="BE12" s="91"/>
       <c r="BF12" s="92"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
       <c r="BL12" s="92"/>
-      <c r="BM12" s="13"/>
+      <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G13" s="56" t="n">
         <f aca="false">Netzplan!G12</f>
@@ -5537,41 +5883,41 @@
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="13" t="n">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="13" t="n">
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AD13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
       <c r="AG13" s="56" t="n">
         <v>1</v>
       </c>
@@ -5585,66 +5931,66 @@
       <c r="AK13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AR13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="13" t="n">
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AY13" s="92"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="13"/>
-      <c r="BD13" s="13"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
       <c r="BE13" s="91"/>
       <c r="BF13" s="92"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
       <c r="BL13" s="92"/>
-      <c r="BM13" s="13"/>
+      <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G14" s="56" t="n">
         <f aca="false">Netzplan!G13</f>
@@ -5666,78 +6012,78 @@
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
       <c r="AB14" s="91"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="13"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="38"/>
       <c r="AJ14" s="91"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
       <c r="AN14" s="56"/>
       <c r="AO14" s="56"/>
       <c r="AP14" s="56"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
       <c r="AY14" s="92"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="13"/>
-      <c r="BD14" s="13"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
       <c r="BE14" s="91"/>
       <c r="BF14" s="92"/>
-      <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
       <c r="BL14" s="92"/>
-      <c r="BM14" s="13"/>
+      <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G15" s="56" t="n">
         <f aca="false">Netzplan!G14</f>
@@ -5759,68 +6105,68 @@
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
       <c r="AB15" s="91"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13" t="n">
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AJ15" s="91"/>
-      <c r="AK15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
+      <c r="AK15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
       <c r="AU15" s="56"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
       <c r="AY15" s="92"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
       <c r="BE15" s="91"/>
       <c r="BF15" s="92"/>
-      <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BI15" s="13"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
       <c r="BL15" s="92"/>
-      <c r="BM15" s="13"/>
+      <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="94" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
@@ -5831,74 +6177,74 @@
       <c r="I16" s="58"/>
       <c r="J16" s="89"/>
       <c r="K16" s="90"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="91"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
       <c r="AJ16" s="91"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
       <c r="AQ16" s="56"/>
       <c r="AR16" s="56"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
       <c r="AU16" s="56"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
       <c r="AY16" s="92"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
       <c r="BE16" s="91"/>
       <c r="BF16" s="92"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
       <c r="BL16" s="92"/>
-      <c r="BM16" s="13"/>
+      <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G17" s="56" t="n">
         <f aca="false">Netzplan!G15</f>
@@ -5920,76 +6266,76 @@
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
       <c r="AB17" s="91"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
       <c r="AJ17" s="91"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
       <c r="AV17" s="56"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
       <c r="AY17" s="92"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="13"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
       <c r="BE17" s="91"/>
       <c r="BF17" s="92"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
       <c r="BL17" s="92"/>
-      <c r="BM17" s="13"/>
+      <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G18" s="56" t="n">
         <f aca="false">Netzplan!G16</f>
@@ -6011,70 +6357,70 @@
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
       <c r="AB18" s="91"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
       <c r="AJ18" s="91"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
       <c r="AR18" s="56"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AX18" s="56"/>
       <c r="AY18" s="92"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
       <c r="BB18" s="56"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
       <c r="BE18" s="91"/>
       <c r="BF18" s="92"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BK18" s="13"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
       <c r="BL18" s="92"/>
-      <c r="BM18" s="13"/>
+      <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
@@ -6085,71 +6431,71 @@
       <c r="I19" s="58"/>
       <c r="J19" s="89"/>
       <c r="K19" s="90"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
       <c r="AB19" s="91"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
       <c r="AJ19" s="91"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
       <c r="AR19" s="56"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
       <c r="AX19" s="56"/>
       <c r="AY19" s="92"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
       <c r="BB19" s="56"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
       <c r="BE19" s="91"/>
       <c r="BF19" s="92"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BK19" s="13"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
       <c r="BL19" s="92"/>
-      <c r="BM19" s="13"/>
+      <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="n">
@@ -6172,61 +6518,61 @@
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
       <c r="AB20" s="97"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
       <c r="AJ20" s="97"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="13"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="38"/>
       <c r="BB20" s="98" t="n">
         <v>1</v>
       </c>
       <c r="BC20" s="56"/>
-      <c r="BD20" s="16"/>
+      <c r="BD20" s="42"/>
       <c r="BE20" s="97"/>
       <c r="BF20" s="98"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="16"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
       <c r="BL20" s="98"/>
-      <c r="BM20" s="16"/>
+      <c r="BM20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6299,10 +6645,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="99" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,13 +6656,13 @@
         <v>45297</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" s="101" t="n">
         <v>45413</v>
@@ -6330,16 +6676,16 @@
         <v>45359</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6347,16 +6693,16 @@
         <v>45380</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="83" t="s">
-        <v>108</v>
-      </c>
       <c r="E4" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,16 +6710,16 @@
         <v>45383</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,13 +6727,13 @@
         <v>45413</v>
       </c>
       <c r="B6" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,16 +6741,16 @@
         <v>45421</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,16 +6758,16 @@
         <v>45432</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,16 +6775,16 @@
         <v>45442</v>
       </c>
       <c r="B9" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>119</v>
-      </c>
       <c r="E9" s="83" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,16 +6792,16 @@
         <v>45519</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,16 +6809,16 @@
         <v>45555</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,16 +6826,16 @@
         <v>45568</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,16 +6843,16 @@
         <v>45596</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,16 +6860,16 @@
         <v>45597</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,13 +6877,13 @@
         <v>45616</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,13 +6891,13 @@
         <v>45651</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,19 +6905,19 @@
         <v>45652</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Netzplan" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="148">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241720" cy="421560"/>
+          <a:ext cx="2241360" cy="421200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,9 +1635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1647,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1679,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1723,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,7 +1735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AF3:AH3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2514,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="AF3:AH3 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,8 +3238,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3459,11 +3459,9 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="62"/>
       <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="59" t="s">
@@ -4482,14 +4480,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="V3:X3"/>
-    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
@@ -4625,7 +4622,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+      <selection pane="topRight" activeCell="BN2" activeCellId="1" sqref="AF3:AH3 BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -6631,7 +6628,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AF3:AH3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -1940,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AF3:AH3 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="AF3:AH3 B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3239,7 +3239,7 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3:AH3"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3459,9 +3459,11 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="62"/>
       <c r="AE3" s="61"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
+      <c r="AF3" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="59" t="s">
@@ -4480,13 +4482,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="V3:X3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
@@ -4622,7 +4625,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="1" sqref="AF3:AH3 BN2"/>
+      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -6628,7 +6631,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AF3:AH3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="146">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -322,12 +322,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spätester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressourcen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meier, Nuyen</t>
   </si>
   <si>
     <t xml:space="preserve">Vorarbeiten fertig</t>
@@ -865,7 +859,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1215,10 +1209,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1554,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,7 +1556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241360" cy="421200"/>
+          <a:ext cx="2241000" cy="420840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,72 +1616,28 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Form 1"/>
+        <xdr:cNvPr id="1" name="Form 2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7922160" y="1632600"/>
-          <a:ext cx="109800" cy="160920"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Form 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12196440" y="2779560"/>
-          <a:ext cx="109800" cy="160920"/>
+          <a:off x="12196440" y="2617560"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1718,24 +1664,24 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>182160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Form 3"/>
+        <xdr:cNvPr id="2" name="Form 3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14207760" y="3264840"/>
-          <a:ext cx="109800" cy="160920"/>
+          <a:off x="14207760" y="2941200"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1941,7 +1887,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Z8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2515,7 +2461,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="Z8 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,8 +3184,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U7" activeCellId="1" sqref="Z8 U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4622,10 +4568,10 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+      <selection pane="topRight" activeCell="Z8" activeCellId="0" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4668,170 +4614,168 @@
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="87" t="n">
-        <v>45397</v>
+        <v>45572</v>
       </c>
       <c r="M1" s="87" t="n">
-        <v>45398</v>
+        <v>45573</v>
       </c>
       <c r="N1" s="87" t="n">
-        <v>45399</v>
+        <v>45574</v>
       </c>
       <c r="O1" s="87" t="n">
-        <v>45400</v>
+        <v>45575</v>
       </c>
       <c r="P1" s="87" t="n">
-        <v>45401</v>
+        <v>45576</v>
       </c>
       <c r="Q1" s="87" t="n">
-        <v>45402</v>
+        <v>45577</v>
       </c>
       <c r="R1" s="87" t="n">
-        <v>45403</v>
+        <v>45578</v>
       </c>
       <c r="S1" s="87" t="n">
-        <v>45404</v>
+        <v>45579</v>
       </c>
       <c r="T1" s="87" t="n">
-        <v>45405</v>
+        <v>45580</v>
       </c>
       <c r="U1" s="87" t="n">
-        <v>45406</v>
+        <v>45581</v>
       </c>
       <c r="V1" s="87" t="n">
-        <v>45407</v>
+        <v>45582</v>
       </c>
       <c r="W1" s="87" t="n">
-        <v>45408</v>
+        <v>45583</v>
       </c>
       <c r="X1" s="87" t="n">
-        <v>45409</v>
+        <v>45584</v>
       </c>
       <c r="Y1" s="87" t="n">
-        <v>45410</v>
+        <v>45585</v>
       </c>
       <c r="Z1" s="87" t="n">
-        <v>45411</v>
+        <v>45586</v>
       </c>
       <c r="AA1" s="87" t="n">
-        <v>45412</v>
-      </c>
-      <c r="AB1" s="88" t="n">
-        <v>45413</v>
+        <v>45587</v>
+      </c>
+      <c r="AB1" s="87" t="n">
+        <v>45588</v>
       </c>
       <c r="AC1" s="87" t="n">
-        <v>45414</v>
+        <v>45589</v>
       </c>
       <c r="AD1" s="87" t="n">
-        <v>45415</v>
+        <v>45590</v>
       </c>
       <c r="AE1" s="87" t="n">
-        <v>45416</v>
+        <v>45591</v>
       </c>
       <c r="AF1" s="87" t="n">
-        <v>45417</v>
+        <v>45592</v>
       </c>
       <c r="AG1" s="87" t="n">
-        <v>45418</v>
+        <v>45593</v>
       </c>
       <c r="AH1" s="87" t="n">
-        <v>45419</v>
+        <v>45594</v>
       </c>
       <c r="AI1" s="87" t="n">
-        <v>45420</v>
-      </c>
-      <c r="AJ1" s="88" t="n">
-        <v>45421</v>
+        <v>45595</v>
+      </c>
+      <c r="AJ1" s="87" t="n">
+        <v>45596</v>
       </c>
       <c r="AK1" s="87" t="n">
-        <v>45422</v>
+        <v>45597</v>
       </c>
       <c r="AL1" s="87" t="n">
-        <v>45423</v>
+        <v>45598</v>
       </c>
       <c r="AM1" s="87" t="n">
-        <v>45424</v>
+        <v>45599</v>
       </c>
       <c r="AN1" s="87" t="n">
-        <v>45425</v>
+        <v>45600</v>
       </c>
       <c r="AO1" s="87" t="n">
-        <v>45426</v>
+        <v>45601</v>
       </c>
       <c r="AP1" s="87" t="n">
-        <v>45427</v>
+        <v>45602</v>
       </c>
       <c r="AQ1" s="87" t="n">
-        <v>45428</v>
+        <v>45603</v>
       </c>
       <c r="AR1" s="87" t="n">
-        <v>45429</v>
+        <v>45604</v>
       </c>
       <c r="AS1" s="87" t="n">
-        <v>45430</v>
+        <v>45605</v>
       </c>
       <c r="AT1" s="87" t="n">
-        <v>45431</v>
+        <v>45606</v>
       </c>
       <c r="AU1" s="87" t="n">
-        <v>45432</v>
+        <v>45607</v>
       </c>
       <c r="AV1" s="87" t="n">
-        <v>45433</v>
+        <v>45608</v>
       </c>
       <c r="AW1" s="87" t="n">
-        <v>45434</v>
+        <v>45609</v>
       </c>
       <c r="AX1" s="87" t="n">
-        <v>45435</v>
+        <v>45610</v>
       </c>
       <c r="AY1" s="87" t="n">
-        <v>45436</v>
+        <v>45611</v>
       </c>
       <c r="AZ1" s="87" t="n">
-        <v>45437</v>
+        <v>45612</v>
       </c>
       <c r="BA1" s="87" t="n">
-        <v>45438</v>
+        <v>45613</v>
       </c>
       <c r="BB1" s="87" t="n">
-        <v>45439</v>
+        <v>45614</v>
       </c>
       <c r="BC1" s="87" t="n">
-        <v>45440</v>
+        <v>45615</v>
       </c>
       <c r="BD1" s="87" t="n">
-        <v>45441</v>
-      </c>
-      <c r="BE1" s="88" t="n">
-        <v>45442</v>
+        <v>45616</v>
+      </c>
+      <c r="BE1" s="87" t="n">
+        <v>45617</v>
       </c>
       <c r="BF1" s="87" t="n">
-        <v>45443</v>
+        <v>45618</v>
       </c>
       <c r="BG1" s="87" t="n">
-        <v>45444</v>
+        <v>45619</v>
       </c>
       <c r="BH1" s="87" t="n">
-        <v>45445</v>
+        <v>45620</v>
       </c>
       <c r="BI1" s="87" t="n">
-        <v>45446</v>
+        <v>45621</v>
       </c>
       <c r="BJ1" s="87" t="n">
-        <v>45447</v>
+        <v>45622</v>
       </c>
       <c r="BK1" s="87" t="n">
-        <v>45448</v>
+        <v>45623</v>
       </c>
       <c r="BL1" s="87" t="n">
-        <v>45449</v>
+        <v>45624</v>
       </c>
       <c r="BM1" s="87" t="n">
-        <v>45450</v>
-      </c>
-      <c r="BN1" s="83" t="s">
-        <v>99</v>
-      </c>
+        <v>45625</v>
+      </c>
+      <c r="BN1" s="83"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
@@ -4858,20 +4802,16 @@
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="89" t="n">
+      <c r="J2" s="88" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="90" t="n">
+      <c r="K2" s="89" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
@@ -4886,7 +4826,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="38"/>
-      <c r="AB2" s="91"/>
+      <c r="AB2" s="90"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
@@ -4894,7 +4834,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="38"/>
       <c r="AI2" s="38"/>
-      <c r="AJ2" s="91"/>
+      <c r="AJ2" s="90"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
       <c r="AM2" s="38"/>
@@ -4909,24 +4849,21 @@
       <c r="AV2" s="38"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
-      <c r="AY2" s="92"/>
+      <c r="AY2" s="91"/>
       <c r="AZ2" s="38"/>
       <c r="BA2" s="38"/>
       <c r="BB2" s="38"/>
       <c r="BC2" s="38"/>
       <c r="BD2" s="38"/>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="92"/>
+      <c r="BE2" s="90"/>
+      <c r="BF2" s="91"/>
       <c r="BG2" s="38"/>
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
       <c r="BJ2" s="38"/>
       <c r="BK2" s="38"/>
-      <c r="BL2" s="92"/>
+      <c r="BL2" s="91"/>
       <c r="BM2" s="38"/>
-      <c r="BN2" s="44" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
@@ -4955,19 +4892,17 @@
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="89" t="n">
+      <c r="J3" s="88" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="90" t="n">
+      <c r="K3" s="89" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -4981,7 +4916,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
-      <c r="AB3" s="91"/>
+      <c r="AB3" s="90"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
@@ -4989,7 +4924,7 @@
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
       <c r="AI3" s="38"/>
-      <c r="AJ3" s="91"/>
+      <c r="AJ3" s="90"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
       <c r="AM3" s="38"/>
@@ -5004,20 +4939,20 @@
       <c r="AV3" s="38"/>
       <c r="AW3" s="38"/>
       <c r="AX3" s="38"/>
-      <c r="AY3" s="92"/>
+      <c r="AY3" s="91"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="38"/>
       <c r="BB3" s="38"/>
       <c r="BC3" s="38"/>
       <c r="BD3" s="38"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="92"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="91"/>
       <c r="BG3" s="38"/>
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
-      <c r="BL3" s="92"/>
+      <c r="BL3" s="91"/>
       <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,31 +4982,23 @@
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="89" t="n">
+      <c r="J4" s="88" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="90" t="n">
+      <c r="K4" s="89" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -5079,7 +5006,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
-      <c r="AB4" s="91"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="38"/>
       <c r="AD4" s="38"/>
       <c r="AE4" s="38"/>
@@ -5087,7 +5014,7 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
-      <c r="AJ4" s="91"/>
+      <c r="AJ4" s="90"/>
       <c r="AK4" s="38"/>
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
@@ -5102,20 +5029,20 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="92"/>
+      <c r="AY4" s="91"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="38"/>
       <c r="BC4" s="38"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="92"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="91"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
-      <c r="BL4" s="92"/>
+      <c r="BL4" s="91"/>
       <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,28 +5072,22 @@
         <f aca="false">Netzplan!I5</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="89" t="n">
+      <c r="J5" s="88" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="90" t="n">
+      <c r="K5" s="89" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
-      <c r="S5" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" s="38"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
@@ -5175,7 +5096,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
-      <c r="AB5" s="91"/>
+      <c r="AB5" s="90"/>
       <c r="AC5" s="38"/>
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
@@ -5183,7 +5104,7 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
-      <c r="AJ5" s="91"/>
+      <c r="AJ5" s="90"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
@@ -5198,20 +5119,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="38"/>
       <c r="AX5" s="38"/>
-      <c r="AY5" s="92"/>
+      <c r="AY5" s="91"/>
       <c r="AZ5" s="38"/>
       <c r="BA5" s="38"/>
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="92"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="91"/>
       <c r="BG5" s="38"/>
       <c r="BH5" s="38"/>
       <c r="BI5" s="38"/>
       <c r="BJ5" s="38"/>
       <c r="BK5" s="38"/>
-      <c r="BL5" s="92"/>
+      <c r="BL5" s="91"/>
       <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,13 +5162,13 @@
         <f aca="false">Netzplan!I6</f>
         <v>1.5</v>
       </c>
-      <c r="J6" s="89" t="n">
+      <c r="J6" s="88" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="90" t="n">
+      <c r="K6" s="89" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5257,25 +5178,15 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="56"/>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
-      <c r="Z6" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="93"/>
+      <c r="AB6" s="92"/>
       <c r="AC6" s="56"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
@@ -5283,7 +5194,7 @@
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
-      <c r="AJ6" s="91"/>
+      <c r="AJ6" s="90"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
@@ -5298,20 +5209,20 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="38"/>
       <c r="AX6" s="38"/>
-      <c r="AY6" s="92"/>
+      <c r="AY6" s="91"/>
       <c r="AZ6" s="38"/>
       <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="91"/>
       <c r="BG6" s="38"/>
       <c r="BH6" s="38"/>
       <c r="BI6" s="38"/>
       <c r="BJ6" s="38"/>
       <c r="BK6" s="38"/>
-      <c r="BL6" s="92"/>
+      <c r="BL6" s="91"/>
       <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,19 +5252,17 @@
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="89" t="n">
+      <c r="J7" s="88" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="90" t="n">
+      <c r="K7" s="89" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="38"/>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5367,7 +5276,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
-      <c r="AB7" s="91"/>
+      <c r="AB7" s="90"/>
       <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
@@ -5375,7 +5284,7 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
-      <c r="AJ7" s="91"/>
+      <c r="AJ7" s="90"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -5390,20 +5299,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="38"/>
       <c r="AX7" s="38"/>
-      <c r="AY7" s="92"/>
+      <c r="AY7" s="91"/>
       <c r="AZ7" s="38"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
       <c r="BC7" s="38"/>
       <c r="BD7" s="38"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="92"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="91"/>
       <c r="BG7" s="38"/>
       <c r="BH7" s="38"/>
       <c r="BI7" s="38"/>
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
-      <c r="BL7" s="92"/>
+      <c r="BL7" s="91"/>
       <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,39 +5342,31 @@
         <f aca="false">Netzplan!I8</f>
         <v>0.8</v>
       </c>
-      <c r="J8" s="89" t="n">
+      <c r="J8" s="88" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="90" t="n">
+      <c r="K8" s="89" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
-      <c r="S8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" s="38"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
+      <c r="Z8" s="0"/>
       <c r="AA8" s="38"/>
-      <c r="AB8" s="91"/>
+      <c r="AB8" s="90"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
@@ -5473,7 +5374,7 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
-      <c r="AJ8" s="91"/>
+      <c r="AJ8" s="90"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
@@ -5488,36 +5389,36 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="92"/>
+      <c r="AY8" s="91"/>
       <c r="AZ8" s="38"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="38"/>
       <c r="BD8" s="38"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="91"/>
       <c r="BG8" s="38"/>
       <c r="BH8" s="38"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="92"/>
+      <c r="BL8" s="91"/>
       <c r="BM8" s="38"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
-      <c r="B9" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="58"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5534,7 +5435,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="91"/>
+      <c r="AB9" s="90"/>
       <c r="AC9" s="38"/>
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
@@ -5542,7 +5443,7 @@
       <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
-      <c r="AJ9" s="91"/>
+      <c r="AJ9" s="90"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
@@ -5557,20 +5458,20 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
-      <c r="AY9" s="92"/>
+      <c r="AY9" s="91"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
       <c r="BC9" s="38"/>
       <c r="BD9" s="38"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="92"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="91"/>
       <c r="BG9" s="38"/>
       <c r="BH9" s="38"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="38"/>
       <c r="BK9" s="38"/>
-      <c r="BL9" s="92"/>
+      <c r="BL9" s="91"/>
       <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,13 +5501,13 @@
         <f aca="false">Netzplan!I9</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="89" t="n">
+      <c r="J10" s="88" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="K10" s="90" t="n">
+      <c r="K10" s="89" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5623,10 +5524,8 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="91"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="90"/>
       <c r="AC10" s="38"/>
       <c r="AD10" s="56"/>
       <c r="AE10" s="38"/>
@@ -5634,7 +5533,7 @@
       <c r="AG10" s="56"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
-      <c r="AJ10" s="91"/>
+      <c r="AJ10" s="90"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
@@ -5649,20 +5548,20 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="92"/>
+      <c r="AY10" s="91"/>
       <c r="AZ10" s="38"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
       <c r="BC10" s="38"/>
       <c r="BD10" s="38"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="92"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="91"/>
       <c r="BG10" s="38"/>
       <c r="BH10" s="38"/>
       <c r="BI10" s="38"/>
       <c r="BJ10" s="38"/>
       <c r="BK10" s="38"/>
-      <c r="BL10" s="92"/>
+      <c r="BL10" s="91"/>
       <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,13 +5591,13 @@
         <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="89" t="n">
+      <c r="J11" s="88" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K11" s="90" t="n">
+      <c r="K11" s="89" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5716,17 +5615,15 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
-      <c r="AJ11" s="91"/>
+      <c r="AJ11" s="90"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
@@ -5741,20 +5638,20 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
-      <c r="AY11" s="92"/>
+      <c r="AY11" s="91"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
       <c r="BC11" s="38"/>
       <c r="BD11" s="38"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="92"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="91"/>
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
       <c r="BK11" s="38"/>
-      <c r="BL11" s="92"/>
+      <c r="BL11" s="91"/>
       <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,13 +5681,13 @@
         <f aca="false">Netzplan!I11</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="89" t="n">
+      <c r="J12" s="88" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K12" s="90" t="n">
+      <c r="K12" s="89" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5808,16 +5705,14 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="91"/>
+      <c r="AB12" s="90"/>
       <c r="AC12" s="38"/>
-      <c r="AD12" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
-      <c r="AJ12" s="93"/>
+      <c r="AJ12" s="92"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -5832,20 +5727,20 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
-      <c r="AY12" s="92"/>
+      <c r="AY12" s="91"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="92"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="91"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
       <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
-      <c r="BL12" s="92"/>
+      <c r="BL12" s="91"/>
       <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,13 +5770,13 @@
         <f aca="false">Netzplan!I12</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="89" t="n">
+      <c r="J13" s="88" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="K13" s="90" t="n">
+      <c r="K13" s="89" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5892,89 +5787,49 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="56"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
-      <c r="Z13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="56"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="56"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
-      <c r="AN13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="56"/>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
-      <c r="AU13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="92"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="91"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
       <c r="BC13" s="38"/>
       <c r="BD13" s="38"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="92"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="91"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
-      <c r="BL13" s="92"/>
+      <c r="BL13" s="91"/>
       <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,13 +5859,13 @@
         <f aca="false">Netzplan!I13</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="89" t="n">
+      <c r="J14" s="88" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="K14" s="90" t="n">
+      <c r="K14" s="89" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -6028,19 +5883,15 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-      <c r="AB14" s="91"/>
+      <c r="AB14" s="90"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
-      <c r="AJ14" s="91"/>
+      <c r="AJ14" s="90"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
       <c r="AN14" s="56"/>
@@ -6054,20 +5905,20 @@
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
-      <c r="AY14" s="92"/>
+      <c r="AY14" s="91"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="38"/>
       <c r="BD14" s="38"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="92"/>
+      <c r="BE14" s="90"/>
+      <c r="BF14" s="91"/>
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
       <c r="BJ14" s="38"/>
       <c r="BK14" s="38"/>
-      <c r="BL14" s="92"/>
+      <c r="BL14" s="91"/>
       <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,13 +5948,13 @@
         <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="89" t="n">
+      <c r="J15" s="88" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K15" s="90" t="n">
+      <c r="K15" s="89" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -6121,20 +5972,16 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
-      <c r="AB15" s="91"/>
+      <c r="AB15" s="90"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
-      <c r="AI15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
       <c r="AN15" s="38"/>
@@ -6147,36 +5994,36 @@
       <c r="AV15" s="38"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
-      <c r="AY15" s="92"/>
+      <c r="AY15" s="91"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
       <c r="BC15" s="38"/>
       <c r="BD15" s="38"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
+      <c r="BE15" s="90"/>
+      <c r="BF15" s="91"/>
       <c r="BG15" s="38"/>
       <c r="BH15" s="38"/>
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="38"/>
-      <c r="BL15" s="92"/>
+      <c r="BL15" s="91"/>
       <c r="BM15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36"/>
-      <c r="B16" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6193,7 +6040,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
-      <c r="AB16" s="91"/>
+      <c r="AB16" s="90"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
@@ -6201,7 +6048,7 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="91"/>
+      <c r="AJ16" s="90"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
@@ -6215,20 +6062,20 @@
       <c r="AV16" s="38"/>
       <c r="AW16" s="38"/>
       <c r="AX16" s="38"/>
-      <c r="AY16" s="92"/>
+      <c r="AY16" s="91"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="92"/>
+      <c r="BE16" s="90"/>
+      <c r="BF16" s="91"/>
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
       <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
-      <c r="BL16" s="92"/>
+      <c r="BL16" s="91"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,13 +6105,13 @@
         <f aca="false">Netzplan!I15</f>
         <v>1.5</v>
       </c>
-      <c r="J17" s="89" t="n">
+      <c r="J17" s="88" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K17" s="90" t="n">
+      <c r="K17" s="89" t="n">
         <f aca="false">SUM(L17:BM17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -6282,7 +6129,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
-      <c r="AB17" s="91"/>
+      <c r="AB17" s="90"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
       <c r="AE17" s="38"/>
@@ -6290,36 +6137,34 @@
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
-      <c r="AJ17" s="91"/>
+      <c r="AJ17" s="90"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="38"/>
-      <c r="AR17" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR17" s="38"/>
       <c r="AS17" s="38"/>
       <c r="AT17" s="38"/>
       <c r="AU17" s="38"/>
       <c r="AV17" s="56"/>
       <c r="AW17" s="38"/>
       <c r="AX17" s="38"/>
-      <c r="AY17" s="92"/>
+      <c r="AY17" s="91"/>
       <c r="AZ17" s="38"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
       <c r="BC17" s="38"/>
       <c r="BD17" s="38"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="92"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="91"/>
       <c r="BG17" s="38"/>
       <c r="BH17" s="38"/>
       <c r="BI17" s="38"/>
       <c r="BJ17" s="38"/>
       <c r="BK17" s="38"/>
-      <c r="BL17" s="92"/>
+      <c r="BL17" s="91"/>
       <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,13 +6194,13 @@
         <f aca="false">Netzplan!I16</f>
         <v>1.5</v>
       </c>
-      <c r="J18" s="89" t="n">
+      <c r="J18" s="88" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K18" s="90" t="n">
+      <c r="K18" s="89" t="n">
         <f aca="false">SUM(L18:BM18)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -6373,7 +6218,7 @@
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
-      <c r="AB18" s="91"/>
+      <c r="AB18" s="90"/>
       <c r="AC18" s="38"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
@@ -6381,7 +6226,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
-      <c r="AJ18" s="91"/>
+      <c r="AJ18" s="90"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
@@ -6392,45 +6237,39 @@
       <c r="AR18" s="56"/>
       <c r="AS18" s="38"/>
       <c r="AT18" s="38"/>
-      <c r="AU18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
       <c r="AX18" s="56"/>
-      <c r="AY18" s="92"/>
+      <c r="AY18" s="91"/>
       <c r="AZ18" s="38"/>
       <c r="BA18" s="38"/>
       <c r="BB18" s="56"/>
       <c r="BC18" s="38"/>
       <c r="BD18" s="38"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="92"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="91"/>
       <c r="BG18" s="38"/>
       <c r="BH18" s="38"/>
       <c r="BI18" s="38"/>
       <c r="BK18" s="38"/>
-      <c r="BL18" s="92"/>
+      <c r="BL18" s="91"/>
       <c r="BM18" s="38"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
-      <c r="B19" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="B19" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="58"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -6447,7 +6286,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
-      <c r="AB19" s="91"/>
+      <c r="AB19" s="90"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="38"/>
       <c r="AE19" s="38"/>
@@ -6455,7 +6294,7 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
-      <c r="AJ19" s="91"/>
+      <c r="AJ19" s="90"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
@@ -6470,19 +6309,19 @@
       <c r="AV19" s="38"/>
       <c r="AW19" s="38"/>
       <c r="AX19" s="56"/>
-      <c r="AY19" s="92"/>
+      <c r="AY19" s="91"/>
       <c r="AZ19" s="38"/>
       <c r="BA19" s="38"/>
       <c r="BB19" s="56"/>
       <c r="BC19" s="38"/>
       <c r="BD19" s="38"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="92"/>
+      <c r="BE19" s="90"/>
+      <c r="BF19" s="91"/>
       <c r="BG19" s="38"/>
       <c r="BH19" s="38"/>
       <c r="BI19" s="38"/>
       <c r="BK19" s="38"/>
-      <c r="BL19" s="92"/>
+      <c r="BL19" s="91"/>
       <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,17 +6345,17 @@
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="95" t="n">
+      <c r="I20" s="94" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="96" t="n">
+      <c r="J20" s="95" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="90" t="n">
+      <c r="K20" s="89" t="n">
         <f aca="false">SUM(L20:BM20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -6534,7 +6373,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="97"/>
+      <c r="AB20" s="96"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
@@ -6542,7 +6381,7 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
-      <c r="AJ20" s="97"/>
+      <c r="AJ20" s="96"/>
       <c r="AK20" s="42"/>
       <c r="AL20" s="42"/>
       <c r="AM20" s="42"/>
@@ -6559,19 +6398,17 @@
       <c r="AX20" s="42"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="38"/>
-      <c r="BB20" s="98" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB20" s="97"/>
       <c r="BC20" s="56"/>
       <c r="BD20" s="42"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="98"/>
+      <c r="BE20" s="96"/>
+      <c r="BF20" s="97"/>
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="42"/>
-      <c r="BL20" s="98"/>
+      <c r="BL20" s="97"/>
       <c r="BM20" s="42"/>
     </row>
   </sheetData>
@@ -6597,12 +6434,12 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L20 M1:BM1 L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
+  <conditionalFormatting sqref="L1:L20 L2:BM7 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20 M1:BM1 L9:BM16 L8:Y8 AA8:BM8">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
+  <conditionalFormatting sqref="L2:BM7 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20 L9:BM16 L8:Y8 AA8:BM8">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>1</formula>
     </cfRule>
@@ -6631,12 +6468,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Z8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
@@ -6644,280 +6481,280 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="99" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="C2" s="83" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="100" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B2" s="99" t="s">
+      <c r="E2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="F2" s="100" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G2" s="100" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="99" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="C3" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="101" t="n">
+      <c r="D3" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="99" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="99" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="99" t="n">
         <v>45413</v>
       </c>
-      <c r="G2" s="101" t="n">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="100" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B3" s="99" t="s">
+      <c r="B6" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="99" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="99" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="100" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B4" s="99" t="s">
+      <c r="E8" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="100" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="100" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B7" s="99" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="99" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="100" t="n">
-        <v>45432</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="100" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B9" s="99" t="s">
+      <c r="E9" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="83" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="99" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="83" t="s">
+      <c r="C10" s="83" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="100" t="n">
-        <v>45519</v>
-      </c>
-      <c r="B10" s="99" t="s">
+      <c r="D10" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="83" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="99" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="83" t="s">
+      <c r="C11" s="83" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="100" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B11" s="99" t="s">
+      <c r="D11" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="83" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="99" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="83" t="s">
+      <c r="C12" s="83" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="100" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B12" s="99" t="s">
+      <c r="D12" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="99" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C13" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B13" s="99" t="s">
+      <c r="D13" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="83" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="100" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="99" t="s">
+      <c r="C14" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B14" s="99" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="100" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="83" t="s">
+      <c r="C15" s="83" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B15" s="99" t="s">
+      <c r="E15" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="83" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="100" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="C16" s="83" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B16" s="99" t="s">
+      <c r="D16" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="100" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C17" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>145</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -859,7 +859,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1234,6 +1234,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1620,23 +1624,23 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>182520</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Form 2" hidden="1"/>
+        <xdr:cNvPr id="1" name="Form 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12196440" y="2617560"/>
+          <a:off x="12196440" y="2779560"/>
           <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1660,28 +1664,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>182160</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>177840</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Form 3" hidden="1"/>
+        <xdr:cNvPr id="2" name="Form 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14207760" y="2941200"/>
-          <a:ext cx="109440" cy="160560"/>
+          <a:off x="8148960" y="1644480"/>
+          <a:ext cx="128880" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>79920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>183960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Form 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14214960" y="3251880"/>
+          <a:ext cx="104040" cy="161640"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1887,7 +1935,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Z8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2461,7 +2509,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="Z8 B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3184,8 +3232,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="1" sqref="Z8 U7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ3" activeCellId="0" sqref="BJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4569,9 +4617,9 @@
   <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z8" activeCellId="0" sqref="Z8"/>
+      <selection pane="topRight" activeCell="AV11" activeCellId="0" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4808,10 +4856,14 @@
       </c>
       <c r="K2" s="89" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
@@ -4898,11 +4950,13 @@
       </c>
       <c r="K3" s="89" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -4988,17 +5042,25 @@
       </c>
       <c r="K4" s="89" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="56"/>
+      <c r="S4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -5078,16 +5140,22 @@
       </c>
       <c r="K5" s="89" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="S5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
@@ -5168,7 +5236,7 @@
       </c>
       <c r="K6" s="89" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5178,13 +5246,23 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="56"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
-      <c r="Z6" s="56"/>
+      <c r="Z6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AA6" s="56"/>
       <c r="AB6" s="92"/>
       <c r="AC6" s="56"/>
@@ -5258,11 +5336,13 @@
       </c>
       <c r="K7" s="89" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5348,17 +5428,25 @@
       </c>
       <c r="K8" s="89" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="56"/>
+      <c r="S8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="38"/>
@@ -5405,7 +5493,7 @@
       <c r="BL8" s="91"/>
       <c r="BM8" s="38"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
       <c r="B9" s="93" t="s">
         <v>99</v>
@@ -5507,7 +5595,7 @@
       </c>
       <c r="K10" s="89" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5524,7 +5612,9 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="AA10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB10" s="90"/>
       <c r="AC10" s="38"/>
       <c r="AD10" s="56"/>
@@ -5597,7 +5687,7 @@
       </c>
       <c r="K11" s="89" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5616,7 +5706,9 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="90"/>
-      <c r="AC11" s="38"/>
+      <c r="AC11" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
@@ -5687,7 +5779,7 @@
       </c>
       <c r="K12" s="89" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5707,7 +5799,9 @@
       <c r="AA12" s="38"/>
       <c r="AB12" s="90"/>
       <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AD12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
@@ -5776,7 +5870,7 @@
       </c>
       <c r="K13" s="89" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5787,36 +5881,76 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="56"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" s="90"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="56"/>
+      <c r="AC13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
+      <c r="AG13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="92"/>
-      <c r="AK13" s="56"/>
+      <c r="AK13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="56"/>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY13" s="91"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
@@ -5865,7 +5999,7 @@
       </c>
       <c r="K14" s="89" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -5888,8 +6022,12 @@
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
+      <c r="AG14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="90"/>
       <c r="AL14" s="38"/>
@@ -5954,7 +6092,7 @@
       </c>
       <c r="K15" s="89" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -5979,9 +6117,13 @@
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
+      <c r="AI15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="90"/>
-      <c r="AK15" s="38"/>
+      <c r="AK15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
       <c r="AN15" s="38"/>
@@ -6010,7 +6152,7 @@
       <c r="BL15" s="91"/>
       <c r="BM15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36"/>
       <c r="B16" s="93" t="s">
         <v>100</v>
@@ -6111,7 +6253,7 @@
       </c>
       <c r="K17" s="89" t="n">
         <f aca="false">SUM(L17:BM17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -6141,10 +6283,13 @@
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
+      <c r="AR17" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AS17" s="38"/>
       <c r="AT17" s="38"/>
       <c r="AU17" s="38"/>
@@ -6200,7 +6345,7 @@
       </c>
       <c r="K18" s="89" t="n">
         <f aca="false">SUM(L18:BM18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -6237,10 +6382,16 @@
       <c r="AR18" s="56"/>
       <c r="AS18" s="38"/>
       <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="56"/>
+      <c r="AU18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="38"/>
       <c r="AY18" s="91"/>
       <c r="AZ18" s="38"/>
       <c r="BA18" s="38"/>
@@ -6256,7 +6407,7 @@
       <c r="BL18" s="91"/>
       <c r="BM18" s="38"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
       <c r="B19" s="93" t="s">
         <v>101</v>
@@ -6337,25 +6488,25 @@
         <v>85</v>
       </c>
       <c r="F20" s="78"/>
-      <c r="G20" s="79" t="n">
+      <c r="G20" s="94" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="79" t="str">
+      <c r="H20" s="94" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="94" t="n">
+      <c r="I20" s="95" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="95" t="n">
+      <c r="J20" s="96" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
       <c r="K20" s="89" t="n">
         <f aca="false">SUM(L20:BM20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -6373,7 +6524,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="96"/>
+      <c r="AB20" s="97"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
@@ -6381,7 +6532,7 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
-      <c r="AJ20" s="96"/>
+      <c r="AJ20" s="97"/>
       <c r="AK20" s="42"/>
       <c r="AL20" s="42"/>
       <c r="AM20" s="42"/>
@@ -6396,19 +6547,22 @@
       <c r="AV20" s="42"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
+      <c r="AY20" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="38"/>
-      <c r="BB20" s="97"/>
+      <c r="BB20" s="98"/>
       <c r="BC20" s="56"/>
       <c r="BD20" s="42"/>
-      <c r="BE20" s="96"/>
-      <c r="BF20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="98"/>
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="42"/>
-      <c r="BL20" s="97"/>
+      <c r="BL20" s="98"/>
       <c r="BM20" s="42"/>
     </row>
   </sheetData>
@@ -6434,12 +6588,12 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L20 L2:BM7 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20 M1:BM1 L9:BM16 L8:Y8 AA8:BM8">
+  <conditionalFormatting sqref="L2:BM7 M1:BM1 L8:Y8 AA8:BM8 L1:L18 L9:BM20">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM7 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20 L9:BM16 L8:Y8 AA8:BM8">
+  <conditionalFormatting sqref="L2:BM20">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>1</formula>
     </cfRule>
@@ -6468,12 +6622,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Z8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
@@ -6481,7 +6635,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="83" t="s">
@@ -6489,10 +6643,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="99" t="n">
+      <c r="A2" s="100" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="83" t="s">
@@ -6501,18 +6655,18 @@
       <c r="E2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="100" t="n">
+      <c r="F2" s="101" t="n">
         <v>45413</v>
       </c>
-      <c r="G2" s="100" t="n">
+      <c r="G2" s="101" t="n">
         <v>45414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="99" t="n">
+      <c r="A3" s="100" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="83" t="s">
@@ -6526,10 +6680,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="n">
+      <c r="A4" s="100" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="83" t="s">
@@ -6543,10 +6697,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="n">
+      <c r="A5" s="100" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="83" t="s">
@@ -6560,10 +6714,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="99" t="n">
+      <c r="A6" s="100" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="99" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -6574,10 +6728,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="99" t="n">
+      <c r="A7" s="100" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="99" t="s">
         <v>118</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -6591,10 +6745,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="99" t="n">
+      <c r="A8" s="100" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="99" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="83" t="s">
@@ -6608,10 +6762,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="99" t="n">
+      <c r="A9" s="100" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="99" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -6625,10 +6779,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="99" t="n">
+      <c r="A10" s="100" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="83" t="s">
@@ -6642,10 +6796,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="99" t="n">
+      <c r="A11" s="100" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="83" t="s">
@@ -6659,10 +6813,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="99" t="n">
+      <c r="A12" s="100" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="99" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="83" t="s">
@@ -6676,10 +6830,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="99" t="n">
+      <c r="A13" s="100" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="99" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="83" t="s">
@@ -6688,15 +6842,15 @@
       <c r="D13" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="99" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="100" t="n">
+      <c r="A14" s="101" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="99" t="s">
         <v>137</v>
       </c>
       <c r="C14" s="83" t="s">
@@ -6710,10 +6864,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="100" t="n">
+      <c r="A15" s="101" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="83" t="s">
@@ -6724,10 +6878,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="100" t="n">
+      <c r="A16" s="101" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="99" t="s">
         <v>142</v>
       </c>
       <c r="C16" s="83" t="s">
@@ -6738,10 +6892,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="100" t="n">
+      <c r="A17" s="101" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="83" t="s">

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="PSP_2" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Netzplan" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="145">
-  <si>
-    <t xml:space="preserve">Beispiel: ??? Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+  <si>
+    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -35,57 +35,133 @@
     <t xml:space="preserve">Fr. Claire</t>
   </si>
   <si>
+    <t xml:space="preserve">Produkt-Katalogisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Tests,
+Kundenbetreuung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSP-ID</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte erfassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+    <t xml:space="preserve">1.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">eventuelle Korrekturen</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onlinestellung</t>
   </si>
   <si>
@@ -101,90 +177,27 @@
     <t xml:space="preserve">Frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hr. Karl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr. Groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hr. Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.7</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Stellung</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.8</t>
   </si>
   <si>
@@ -228,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung Frontend</t>
@@ -582,12 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAADCF7"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFFF8080"/>
       </patternFill>
@@ -620,6 +624,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
         <bgColor rgb="FFAADCF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAADCF7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,6 +698,34 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top/>
@@ -726,34 +764,6 @@
       <left style="hair"/>
       <right style="hair"/>
       <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -884,230 +894,230 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,7 +1126,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,11 +1150,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,19 +1174,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1196,59 +1206,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1544,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1556,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241720" cy="421560"/>
+          <a:ext cx="2242080" cy="421920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,27 +1593,24 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
+            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝐷𝑎𝑢𝑒𝑟</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
+            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/█((𝑃𝑒𝑟𝑠𝑜𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡(%)))</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
-            <a:uFillTx/>
+          <a:endParaRPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1625,9 +1632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1637,7 +1644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="110520" cy="161640"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1669,9 +1676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1681,7 +1688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="110520" cy="161640"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1713,9 +1720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,7 +1732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="110520" cy="161640"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1930,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:K36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,191 +1979,511 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="I26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="I29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="I32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="I33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="38">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2184,8 +2511,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="H18:K36 B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2195,7 +2522,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2228,611 +2555,611 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="3"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="22"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="23"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="23"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="25" t="s">
+      <c r="J12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="26" t="s">
+      <c r="M12" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="I20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="I23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="L23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="I26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="27" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="I29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="L32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="31" t="s">
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="L33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="I8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="L8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="L35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="L36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="I11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="L11" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="I14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="L14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="37" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="I17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="L17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="I20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="L20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="37" t="s">
+      <c r="B46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="39" t="s">
+      <c r="B48" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="I23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="L23" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="I25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="I26" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="L26" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="I27" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="I28" s="33"/>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="I29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="L29" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="I30" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="L32" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="L33" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="L34" s="33"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="L35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="L36" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -2909,7 +3236,7 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="1" sqref="H18:K36 AF3"/>
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2923,45 +3250,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="49" t="n">
         <v>5</v>
@@ -3076,19 +3403,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <v>1</v>
@@ -3104,21 +3431,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
       <c r="O3" s="60"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="59" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="60"/>
       <c r="U3" s="61"/>
       <c r="V3" s="59" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
@@ -3130,80 +3457,80 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="61"/>
       <c r="AF3" s="59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="59"/>
       <c r="AH3" s="59"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
       <c r="AN3" s="60"/>
       <c r="AO3" s="61"/>
       <c r="AP3" s="59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AQ3" s="59"/>
       <c r="AR3" s="59"/>
       <c r="AS3" s="60"/>
       <c r="AT3" s="61"/>
       <c r="AU3" s="59" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AV3" s="59"/>
       <c r="AW3" s="59"/>
       <c r="AX3" s="60"/>
       <c r="AY3" s="61"/>
       <c r="AZ3" s="59" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BA3" s="59"/>
       <c r="BB3" s="59"/>
       <c r="BC3" s="60"/>
       <c r="BD3" s="61"/>
       <c r="BE3" s="59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="BF3" s="59"/>
       <c r="BG3" s="59"/>
       <c r="BH3" s="60"/>
       <c r="BI3" s="61"/>
       <c r="BJ3" s="59" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="BK3" s="59"/>
       <c r="BL3" s="59"/>
       <c r="BM3" s="60"/>
       <c r="BN3" s="61"/>
       <c r="BO3" s="59" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="BP3" s="59"/>
       <c r="BQ3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I4" s="58" t="n">
         <v>1</v>
@@ -3347,19 +3674,19 @@
       <c r="BQ4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="56" t="n">
         <v>3</v>
@@ -3480,19 +3807,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="72" t="n">
         <v>7</v>
@@ -3515,25 +3842,25 @@
       <c r="BM6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7" s="58" t="n">
         <v>1</v>
@@ -3549,25 +3876,25 @@
       <c r="BM7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="58" t="n">
         <v>0.8</v>
@@ -3601,25 +3928,25 @@
       <c r="BM8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3632,14 +3959,14 @@
       <c r="O9" s="70"/>
       <c r="T9" s="70"/>
       <c r="V9" s="59" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
@@ -3648,25 +3975,25 @@
       <c r="BM9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G10" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3706,25 +4033,25 @@
       <c r="BM10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G11" s="72" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3757,19 +4084,19 @@
       <c r="BM11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G12" s="72" t="n">
         <v>10</v>
@@ -3794,25 +4121,25 @@
       <c r="BM12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G13" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3827,25 +4154,25 @@
       <c r="BM13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G14" s="72" t="n">
         <v>3</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I14" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3887,25 +4214,25 @@
       <c r="BM14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" s="72" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -3918,21 +4245,21 @@
       <c r="O15" s="70"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="59" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
       <c r="V15" s="59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W15" s="59"/>
       <c r="X15" s="59"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="61"/>
       <c r="AA15" s="59" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
@@ -3974,25 +4301,25 @@
       <c r="BM15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G16" s="72" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I16" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
@@ -4040,23 +4367,23 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" s="58" t="n">
         <v>1</v>
@@ -4100,55 +4427,55 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="59" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4292,10 +4619,10 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="1" sqref="H18:K36 BN2"/>
+      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4310,31 +4637,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="87" t="n">
@@ -4500,21 +4827,21 @@
         <v>45450</v>
       </c>
       <c r="BN1" s="83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="56" t="n">
         <f aca="false">Netzplan!G2</f>
@@ -4545,73 +4872,73 @@
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="91"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
       <c r="AJ2" s="91"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
       <c r="AY2" s="92"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
       <c r="BE2" s="91"/>
       <c r="BF2" s="92"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
       <c r="BL2" s="92"/>
-      <c r="BM2" s="15"/>
+      <c r="BM2" s="38"/>
       <c r="BN2" s="44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <f aca="false">Netzplan!G3</f>
@@ -4633,77 +4960,77 @@
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="56"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
       <c r="AB3" s="91"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
       <c r="AJ3" s="91"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
       <c r="AY3" s="92"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
       <c r="BE3" s="91"/>
       <c r="BF3" s="92"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
       <c r="BL3" s="92"/>
-      <c r="BM3" s="15"/>
+      <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <f aca="false">Netzplan!G4</f>
@@ -4725,18 +5052,18 @@
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15" t="n">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="56" t="n">
@@ -4745,63 +5072,63 @@
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
       <c r="AB4" s="91"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="91"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
       <c r="AY4" s="92"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
       <c r="BE4" s="91"/>
       <c r="BF4" s="92"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
       <c r="BL4" s="92"/>
-      <c r="BM4" s="15"/>
+      <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="56" t="n">
         <f aca="false">Netzplan!G5</f>
@@ -4823,81 +5150,81 @@
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="n">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="91"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
       <c r="AJ5" s="91"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
       <c r="AY5" s="92"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
       <c r="BE5" s="91"/>
       <c r="BF5" s="92"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
-      <c r="BK5" s="15"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
       <c r="BL5" s="92"/>
-      <c r="BM5" s="15"/>
+      <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="56" t="n">
         <f aca="false">Netzplan!G6</f>
@@ -4919,85 +5246,85 @@
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="15" t="n">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W6" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
       <c r="Z6" s="56" t="n">
         <v>1</v>
       </c>
       <c r="AA6" s="56"/>
       <c r="AB6" s="93"/>
       <c r="AC6" s="56"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
       <c r="AY6" s="92"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
       <c r="BE6" s="91"/>
       <c r="BF6" s="92"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
       <c r="BL6" s="92"/>
-      <c r="BM6" s="15"/>
+      <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <f aca="false">Netzplan!G7</f>
@@ -5019,77 +5346,77 @@
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="56"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
       <c r="AB7" s="91"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
       <c r="AJ7" s="91"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
       <c r="AY7" s="92"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
       <c r="BE7" s="91"/>
       <c r="BF7" s="92"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
       <c r="BL7" s="92"/>
-      <c r="BM7" s="15"/>
+      <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="56" t="n">
         <f aca="false">Netzplan!G8</f>
@@ -5111,18 +5438,18 @@
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15" t="n">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="56" t="n">
@@ -5130,54 +5457,54 @@
       </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="91"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
       <c r="AJ8" s="91"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
       <c r="AY8" s="92"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
       <c r="BE8" s="91"/>
       <c r="BF8" s="92"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="15"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
       <c r="BL8" s="92"/>
-      <c r="BM8" s="15"/>
+      <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
@@ -5188,75 +5515,75 @@
       <c r="I9" s="58"/>
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="91"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
       <c r="AJ9" s="91"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
       <c r="AY9" s="92"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
       <c r="BE9" s="91"/>
       <c r="BF9" s="92"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
       <c r="BL9" s="92"/>
-      <c r="BM9" s="15"/>
+      <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G10" s="56" t="n">
         <f aca="false">Netzplan!G9</f>
@@ -5278,77 +5605,77 @@
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15" t="n">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="15"/>
+      <c r="AC10" s="38"/>
       <c r="AD10" s="56"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
       <c r="AG10" s="56"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
       <c r="AJ10" s="91"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
       <c r="AY10" s="92"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
       <c r="BE10" s="91"/>
       <c r="BF10" s="92"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
       <c r="BL10" s="92"/>
-      <c r="BM10" s="15"/>
+      <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G11" s="56" t="n">
         <f aca="false">Netzplan!G10</f>
@@ -5370,77 +5697,77 @@
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
       <c r="AB11" s="91"/>
-      <c r="AC11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="AC11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
       <c r="AJ11" s="91"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
       <c r="AY11" s="92"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
       <c r="BE11" s="91"/>
       <c r="BF11" s="92"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
       <c r="BL11" s="92"/>
-      <c r="BM11" s="15"/>
+      <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="56" t="n">
         <f aca="false">Netzplan!G11</f>
@@ -5462,76 +5789,76 @@
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
       <c r="AJ12" s="93"/>
       <c r="AK12" s="56"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
       <c r="AY12" s="92"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
       <c r="BE12" s="91"/>
       <c r="BF12" s="92"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
       <c r="BL12" s="92"/>
-      <c r="BM12" s="15"/>
+      <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G13" s="56" t="n">
         <f aca="false">Netzplan!G12</f>
@@ -5553,41 +5880,41 @@
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="15" t="n">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="15" t="n">
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="15" t="n">
+      <c r="AC13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AD13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
       <c r="AG13" s="56" t="n">
         <v>1</v>
       </c>
@@ -5601,66 +5928,66 @@
       <c r="AK13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="15" t="n">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AR13" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="15" t="n">
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AY13" s="92"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
       <c r="BE13" s="91"/>
       <c r="BF13" s="92"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
       <c r="BL13" s="92"/>
-      <c r="BM13" s="15"/>
+      <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G14" s="56" t="n">
         <f aca="false">Netzplan!G13</f>
@@ -5682,78 +6009,78 @@
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
       <c r="AB14" s="91"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="15"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="38"/>
       <c r="AJ14" s="91"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
       <c r="AN14" s="56"/>
       <c r="AO14" s="56"/>
       <c r="AP14" s="56"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
       <c r="AY14" s="92"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
       <c r="BE14" s="91"/>
       <c r="BF14" s="92"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
       <c r="BL14" s="92"/>
-      <c r="BM14" s="15"/>
+      <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G15" s="56" t="n">
         <f aca="false">Netzplan!G14</f>
@@ -5775,68 +6102,68 @@
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
       <c r="AB15" s="91"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15" t="n">
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AJ15" s="91"/>
-      <c r="AK15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
+      <c r="AK15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
       <c r="AU15" s="56"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
       <c r="AY15" s="92"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
       <c r="BE15" s="91"/>
       <c r="BF15" s="92"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
-      <c r="BJ15" s="15"/>
-      <c r="BK15" s="15"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
       <c r="BL15" s="92"/>
-      <c r="BM15" s="15"/>
+      <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="94" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
@@ -5847,74 +6174,74 @@
       <c r="I16" s="58"/>
       <c r="J16" s="89"/>
       <c r="K16" s="90"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="91"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
       <c r="AJ16" s="91"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
       <c r="AQ16" s="56"/>
       <c r="AR16" s="56"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
       <c r="AU16" s="56"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
       <c r="AY16" s="92"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
       <c r="BE16" s="91"/>
       <c r="BF16" s="92"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
       <c r="BL16" s="92"/>
-      <c r="BM16" s="15"/>
+      <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G17" s="56" t="n">
         <f aca="false">Netzplan!G15</f>
@@ -5936,76 +6263,77 @@
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
       <c r="AB17" s="91"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
       <c r="AJ17" s="91"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
       <c r="AV17" s="56"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
       <c r="AY17" s="92"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
       <c r="BE17" s="91"/>
       <c r="BF17" s="92"/>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
-      <c r="BJ17" s="15"/>
-      <c r="BK17" s="15"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
       <c r="BL17" s="92"/>
-      <c r="BM17" s="15"/>
+      <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G18" s="56" t="n">
         <f aca="false">Netzplan!G16</f>
@@ -6027,70 +6355,70 @@
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
       <c r="AB18" s="91"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
       <c r="AJ18" s="91"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
       <c r="AR18" s="56"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="15" t="n">
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AX18" s="56"/>
       <c r="AY18" s="92"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
       <c r="BB18" s="56"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
       <c r="BE18" s="91"/>
       <c r="BF18" s="92"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="15"/>
-      <c r="BK18" s="15"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
       <c r="BL18" s="92"/>
-      <c r="BM18" s="15"/>
+      <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
@@ -6101,71 +6429,71 @@
       <c r="I19" s="58"/>
       <c r="J19" s="89"/>
       <c r="K19" s="90"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
       <c r="AB19" s="91"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
       <c r="AJ19" s="91"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
       <c r="AR19" s="56"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
       <c r="AX19" s="56"/>
       <c r="AY19" s="92"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="15"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
       <c r="BB19" s="56"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
       <c r="BE19" s="91"/>
       <c r="BF19" s="92"/>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="15"/>
-      <c r="BK19" s="15"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
       <c r="BL19" s="92"/>
-      <c r="BM19" s="15"/>
+      <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="n">
@@ -6188,61 +6516,62 @@
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
       <c r="AB20" s="97"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
       <c r="AJ20" s="97"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="15"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="38"/>
       <c r="BB20" s="98" t="n">
         <v>1</v>
       </c>
       <c r="BC20" s="56"/>
-      <c r="BD20" s="19"/>
+      <c r="BD20" s="42"/>
       <c r="BE20" s="97"/>
       <c r="BF20" s="98"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
       <c r="BL20" s="98"/>
-      <c r="BM20" s="19"/>
+      <c r="BM20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6301,7 +6630,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H18:K36 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6315,10 +6644,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="99" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,13 +6655,13 @@
         <v>45297</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" s="101" t="n">
         <v>45413</v>
@@ -6346,16 +6675,16 @@
         <v>45359</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,16 +6692,16 @@
         <v>45380</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="83" t="s">
-        <v>108</v>
-      </c>
       <c r="E4" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6380,16 +6709,16 @@
         <v>45383</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,13 +6726,13 @@
         <v>45413</v>
       </c>
       <c r="B6" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,16 +6740,16 @@
         <v>45421</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,16 +6757,16 @@
         <v>45432</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,16 +6774,16 @@
         <v>45442</v>
       </c>
       <c r="B9" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>119</v>
-      </c>
       <c r="E9" s="83" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,16 +6791,16 @@
         <v>45519</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,16 +6808,16 @@
         <v>45555</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6496,16 +6825,16 @@
         <v>45568</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,16 +6842,16 @@
         <v>45596</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,16 +6859,16 @@
         <v>45597</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,13 +6876,13 @@
         <v>45616</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,13 +6890,13 @@
         <v>45651</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,19 +6904,19 @@
         <v>45652</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2242080" cy="421920"/>
+          <a:ext cx="2241720" cy="421560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,24 +1593,27 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝐷𝑎𝑢𝑒𝑟</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/█((𝑃𝑒𝑟𝑠𝑜𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡(%)))</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1632,9 +1635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1676,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1688,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1720,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1732,7 +1735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1937,7 +1940,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2511,7 +2514,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3235,8 +3238,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4619,8 +4622,8 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
@@ -6291,7 +6294,6 @@
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
-      <c r="AN17" s="0"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="38"/>
@@ -6555,7 +6557,6 @@
       <c r="AV20" s="42"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="0"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="38"/>
       <c r="BB20" s="98" t="n">

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -11,7 +11,7 @@
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1565,8 +1565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241720" cy="421560"/>
+          <a:off x="9638280" y="17212320"/>
+          <a:ext cx="2241000" cy="420840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,9 +1635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1647,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1679,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1723,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,7 +1735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3238,16 +3238,16 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.86"/>
   </cols>
@@ -4625,7 +4625,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+      <selection pane="topRight" activeCell="X11" activeCellId="0" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2242080" cy="421920"/>
+          <a:ext cx="2241720" cy="421560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,24 +1593,27 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝐷𝑎𝑢𝑒𝑟</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/█((𝑃𝑒𝑟𝑠𝑜𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡(%)))</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="de-DE" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1632,9 +1635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1676,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1688,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1720,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1732,7 +1735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110520" cy="161640"/>
+          <a:ext cx="110160" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1937,7 +1940,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2511,7 +2514,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3235,8 +3238,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG4" activeCellId="0" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4619,8 +4622,8 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
@@ -6291,7 +6294,6 @@
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
-      <c r="AN17" s="0"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="38"/>
@@ -6555,7 +6557,6 @@
       <c r="AV20" s="42"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="0"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="38"/>
       <c r="BB20" s="98" t="n">

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241720" cy="421560"/>
+          <a:ext cx="2241360" cy="421200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,13 +1631,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>73440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1647,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1675,13 +1675,13 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>73080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2801160"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1719,13 +1719,13 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>72720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,7 +1735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3286440"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109800" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="AB:AB F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="AB:AB B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,8 +3238,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="1" sqref="AB:AB AF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4622,10 +4622,10 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="1" sqref="AB:AB L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L19" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4639,7 +4639,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -6666,7 +6666,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="AB:AB A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übung/Online_Shop.Projekt.xlsx
+++ b/Übung/Online_Shop.Projekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BA724-A76F-43E9-AE44-3289F604A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8B05C-A00B-494E-8F2B-8F5360D4CA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" r:id="rId1"/>
@@ -2610,7 +2610,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
